--- a/excel/ft.xlsx
+++ b/excel/ft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAARC-smt\Desktop\LMS Automation\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED90455E-84B8-4467-8980-A4DC972E5B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73455D-60F2-46DC-819C-76276AEBA0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{51D18CE9-76ED-4951-9FE2-212120E7F5F0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>academicSession</t>
   </si>
@@ -43,13 +43,19 @@
   </si>
   <si>
     <t>Sem 3</t>
+  </si>
+  <si>
+    <t>Course</t>
+  </si>
+  <si>
+    <t>3FB-Advanced Tamil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +83,12 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF211A14"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -98,7 +110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -108,6 +120,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +438,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -448,7 +461,9 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
@@ -462,7 +477,9 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="4"/>
     </row>
